--- a/GUI + Reviews/output/USC3P_df_20251216_153839.xlsx
+++ b/GUI + Reviews/output/USC3P_df_20251216_153839.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_25ECFDD8A85DB5C445E8C01E26A16CFB130A5798" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9966B24E-4F2B-4102-8D6C-6B9322F085B6}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_25ECFDD8A85DB5C445E8C01E26A16CFB130A5798" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF984302-6A93-472E-9F5B-2253560A27A2}"/>
   <bookViews>
     <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5917,12 +5917,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -5952,11 +5958,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6163,8 +6170,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6460,7 +6467,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7695,8 +7702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BE465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12261,128 +12268,128 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>194.76159999999999</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <v>796642460</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <v>155155.29999999999</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="2">
         <v>1748166166.6106701</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="2">
         <v>1291897831.79355</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="2">
         <v>1469180282.0666001</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="2">
         <v>1712231948.9904499</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="2">
         <v>1201903410.85798</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="2">
         <v>1</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="2" t="s">
         <v>1479</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="2">
         <v>270.11</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="2">
         <v>0.85055711000000001</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="2">
         <v>1.06</v>
       </c>
-      <c r="T37">
+      <c r="T37" s="2">
         <v>57.77</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="2">
         <v>0.99</v>
       </c>
-      <c r="V37" t="s">
-        <v>1904</v>
-      </c>
-      <c r="W37" t="s">
-        <v>1904</v>
-      </c>
-      <c r="X37" t="s">
-        <v>1904</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>1904</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>1904</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>1904</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>1904</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>1904</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>1904</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <v>0</v>
-      </c>
-      <c r="AI37">
+      <c r="V37" s="2" t="s">
+        <v>1904</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>1904</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>1904</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>1904</v>
+      </c>
+      <c r="Z37" s="2" t="s">
+        <v>1904</v>
+      </c>
+      <c r="AA37" s="2" t="s">
+        <v>1904</v>
+      </c>
+      <c r="AB37" s="2" t="s">
+        <v>1904</v>
+      </c>
+      <c r="AC37" s="2" t="s">
+        <v>1904</v>
+      </c>
+      <c r="AD37" s="2" t="s">
+        <v>1904</v>
+      </c>
+      <c r="AE37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="2">
         <v>0.99</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
-      <c r="AK37">
-        <v>0</v>
-      </c>
-      <c r="AL37">
-        <v>0</v>
-      </c>
-      <c r="AM37">
+      <c r="AJ37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="2">
         <v>118</v>
       </c>
-      <c r="BC37" t="s">
+      <c r="BC37" s="2" t="s">
         <v>1925</v>
       </c>
-      <c r="BD37" t="s">
+      <c r="BD37" s="2" t="s">
         <v>1945</v>
       </c>
-      <c r="BE37">
+      <c r="BE37" s="2">
         <v>80</v>
       </c>
     </row>
